--- a/medicine/Handicap/Educating_Peter/Educating_Peter.xlsx
+++ b/medicine/Handicap/Educating_Peter/Educating_Peter.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Educating Peter est un film documentaire américain réalisé par Gerardine Wurzburg en 1992.
 </t>
@@ -511,9 +523,11 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le film est consacré à l'intégration dans le milieu scolaire d'un garçon de 10 ans atteint de trisomie 21, à Blacksburg en Virginie. Au début il perturbe la classe, mais fait ensuite de rapides progrès[1]. C'est un des 60 000 handicapés qui sont intégrés dans le système scolaire traditionnel aux États-Unis[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film est consacré à l'intégration dans le milieu scolaire d'un garçon de 10 ans atteint de trisomie 21, à Blacksburg en Virginie. Au début il perturbe la classe, mais fait ensuite de rapides progrès. C'est un des 60 000 handicapés qui sont intégrés dans le système scolaire traditionnel aux États-Unis.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Réalisation : Gerardine Wurzburg
 Production : Thomas C. Goodwin
@@ -577,7 +593,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Peter Gwazdauskas : lui-même
 Frank Gwazdauskas : le père de Peter
@@ -610,9 +628,11 @@
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le film a remporté l'Oscar du meilleur court métrage documentaire en 1993[3]. Le producteur Thomas C. Goodwin a remporté cet Oscar de façon posthume, étant mort quelques mois avant la cérémonie des Oscars.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film a remporté l'Oscar du meilleur court métrage documentaire en 1993. Le producteur Thomas C. Goodwin a remporté cet Oscar de façon posthume, étant mort quelques mois avant la cérémonie des Oscars.
 </t>
         </is>
       </c>
@@ -641,9 +661,11 @@
           <t>Suite</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une suite intitulée Graduating Peter (en) est sortie en 2001, où on voit l'évolution de Peter 9 années après le premier film[4].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une suite intitulée Graduating Peter (en) est sortie en 2001, où on voit l'évolution de Peter 9 années après le premier film.
 </t>
         </is>
       </c>
